--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 36-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 36-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\11209000\11209269\B. Measurements and calculations\007 Assemblagekernel\Testcases\Aangepast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDD0C1B-3A9C-4AB0-BAF4-F737D86846A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9BEF3-3A33-405B-81DD-4358E470A43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2015,7 +2015,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
-        <v>0.55747578352070537</v>
+        <v>0.64051565984511616</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,I2))</f>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>0.55747578352070537</v>
+        <v>0.64051565984511616</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2125,14 +2125,14 @@
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-C7)</f>
+        <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
         <v>0.44252421647929463</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-D7)</f>
+        <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
         <v>0.44252421647929463</v>
       </c>
       <c r="J7" s="1">
@@ -2144,20 +2144,20 @@
         <v>0.55747578352070537</v>
       </c>
       <c r="L7" s="1">
-        <f>F7*J7</f>
-        <v>0.55747578352070537</v>
+        <f t="shared" ref="L7:L13" si="2">F7*J7</f>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f>1-(1-F7)*J7</f>
-        <v>1</v>
+        <v>0.44252421647929463</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*K7</f>
-        <v>0.55747578352070537</v>
+        <f t="shared" ref="N7:N13" si="3">F7*K7</f>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <f>1-(1-F7)*K7</f>
-        <v>1</v>
+        <v>0.44252421647929463</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2174,39 +2174,39 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" si="0"/>
         <v>0.81518554806304655</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" si="1"/>
         <v>0.81518554806304655</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:K13" si="0">1-H8</f>
+        <f t="shared" ref="J8:K13" si="4">1-H8</f>
         <v>0.18481445193695345</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.18481445193695345</v>
       </c>
       <c r="L8" s="1">
-        <f>F8*J8</f>
-        <v>0.18481445193695345</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:M13" si="1">1-(1-F8)*J8</f>
-        <v>1</v>
+        <f t="shared" ref="M8:M13" si="5">1-(1-F8)*J8</f>
+        <v>0.81518554806304655</v>
       </c>
       <c r="N8" s="1">
-        <f>F8*K8</f>
-        <v>0.18481445193695345</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O13" si="2">1-(1-F8)*K8</f>
-        <v>1</v>
+        <f t="shared" ref="O8:O13" si="6">1-(1-F8)*K8</f>
+        <v>0.81518554806304655</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2223,39 +2223,39 @@
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-C9)</f>
+        <f t="shared" si="0"/>
         <v>0.99975080000000005</v>
       </c>
       <c r="I9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-D9)</f>
+        <f t="shared" si="1"/>
         <v>0.99975080000000005</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.4919999999994946E-4</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.4919999999994946E-4</v>
       </c>
       <c r="L9" s="1">
-        <f>F9*J9</f>
-        <v>2.4919999999994946E-4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.99975080000000005</v>
       </c>
       <c r="N9" s="1">
-        <f>F9*K9</f>
-        <v>2.4919999999994946E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99975080000000005</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -2272,38 +2272,38 @@
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-C10)</f>
-        <v>1</v>
-      </c>
       <c r="I10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-D10)</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>F10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N10" s="1">
-        <f>F10*K10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2321,39 +2321,39 @@
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-C11)</f>
+        <f t="shared" si="0"/>
         <v>0.99999700000000002</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-D11)</f>
+        <f t="shared" si="1"/>
         <v>0.99999700000000002</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9999999999752447E-6</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9999999999752447E-6</v>
       </c>
       <c r="L11" s="1">
-        <f>F11*J11</f>
-        <v>2.9999999999752447E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.99999700000000002</v>
       </c>
       <c r="N11" s="1">
-        <f>F11*K11</f>
-        <v>2.9999999999752447E-6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99999700000000002</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -2370,39 +2370,39 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-C12)</f>
+        <f t="shared" si="0"/>
         <v>0.99683550267677601</v>
       </c>
       <c r="I12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-D12)</f>
+        <f t="shared" si="1"/>
         <v>0.99683550267677601</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1644973232239915E-3</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1644973232239915E-3</v>
       </c>
       <c r="L12" s="1">
-        <f>F12*J12</f>
-        <v>3.1644973232239915E-3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.99683550267677601</v>
       </c>
       <c r="N12" s="1">
-        <f>F12*K12</f>
-        <v>3.1644973232239915E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99683550267677601</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-C13)</f>
+        <f t="shared" si="0"/>
         <v>0.99993670000000001</v>
       </c>
       <c r="I13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-D13)</f>
+        <f t="shared" si="1"/>
         <v>0.99993670000000001</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.3299999999988366E-5</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.3299999999988366E-5</v>
       </c>
       <c r="L13" s="1">
-        <f>F13*J13</f>
-        <v>6.3299999999988366E-5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.99993670000000001</v>
       </c>
       <c r="N13" s="1">
-        <f>F13*K13</f>
-        <v>6.3299999999988366E-5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99993670000000001</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2471,11 +2471,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>MAX(L7:L13)</f>
-        <v>0.55747578352070537</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>0.55747578352070537</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 36-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 36-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9BEF3-3A33-405B-81DD-4358E470A43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2EAC9-DD9B-4D26-8381-1A67AC981E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
-        <v>0.64051565984511616</v>
+        <v>0.55747578352070537</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,I2))</f>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>0.64051565984511616</v>
+        <v>0.55747578352070537</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
@@ -2145,19 +2145,19 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L13" si="2">F7*J7</f>
-        <v>0</v>
+        <v>0.55747578352070537</v>
       </c>
       <c r="M7" s="1">
         <f>1-(1-F7)*J7</f>
-        <v>0.44252421647929463</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ref="N7:N13" si="3">F7*K7</f>
-        <v>0</v>
+        <v>0.55747578352070537</v>
       </c>
       <c r="O7" s="1">
         <f>1-(1-F7)*K7</f>
-        <v>0.44252421647929463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
@@ -2194,19 +2194,19 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.18481445193695345</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ref="M8:M13" si="5">1-(1-F8)*J8</f>
-        <v>0.81518554806304655</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.18481445193695345</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ref="O8:O13" si="6">1-(1-F8)*K8</f>
-        <v>0.81518554806304655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
@@ -2243,19 +2243,19 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.4919999999994946E-4</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="5"/>
-        <v>0.99975080000000005</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4919999999994946E-4</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
-        <v>0.99975080000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
@@ -2341,19 +2341,19 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.9999999999752447E-6</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="5"/>
-        <v>0.99999700000000002</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.9999999999752447E-6</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="6"/>
-        <v>0.99999700000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
@@ -2390,19 +2390,19 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.1644973232239915E-3</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>0.99683550267677601</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.1644973232239915E-3</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="6"/>
-        <v>0.99683550267677601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
@@ -2439,19 +2439,19 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.3299999999988366E-5</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>0.99993670000000001</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.3299999999988366E-5</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="6"/>
-        <v>0.99993670000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2471,11 +2471,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>MAX(L7:L13)</f>
-        <v>0</v>
+        <v>0.55747578352070537</v>
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>0</v>
+        <v>0.55747578352070537</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 36-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 36-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27779F8C-7398-4C2A-B5D1-E12A00FC65D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6408276C-41A6-467A-9F77-B3AD8D90403A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Macrostabiliteit</t>
-  </si>
-  <si>
-    <t>Erosie van het buitentalud</t>
   </si>
   <si>
     <t>Duinafslag</t>
@@ -494,6 +491,9 @@
   </si>
   <si>
     <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -1781,19 +1781,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -1818,7 +1818,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -1844,21 +1844,21 @@
         <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
@@ -1866,16 +1866,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>18</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>18</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>18</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>18</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -1963,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
   </sheetPr>
   <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7:O13"/>
     </sheetView>
   </sheetViews>
@@ -2034,7 +2034,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
@@ -2088,39 +2088,39 @@
         <v>38</v>
       </c>
       <c r="E6" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C7</f>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C7</f>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C7</f>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C7</f>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C7</f>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C7</f>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="31">
         <f>BSKW!C7</f>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2583,31 +2583,31 @@
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="H2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="53" t="s">
         <v>69</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="9">
         <v>21.02</v>
@@ -5793,12 +5793,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>36</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -5962,15 +5962,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z39)</f>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R39)</f>
@@ -6043,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -6102,10 +6102,10 @@
         <v>60</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -6866,7 +6866,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>8.9220000000000006</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>9.3160000000000007</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9">
         <v>10.252000000000001</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>11.069000000000001</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>12.009</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>13.311999999999999</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9">
         <v>13.815</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>14.815</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9">
         <v>15.917999999999999</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>16.620999999999999</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9">
         <v>17.53</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="9">
         <v>18.428999999999998</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="9">
         <v>18.841000000000001</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="9">
         <v>19.25</v>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="14">
         <v>20.268999999999998</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -8296,15 +8296,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -8339,7 +8339,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -8436,15 +8436,15 @@
         <v>60</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="9">
         <v>11.8</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="9">
         <v>18.2</v>
@@ -9258,8 +9258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:V78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9283,7 +9283,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -9296,7 +9296,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -9304,15 +9304,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V76)</f>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N76)</f>
@@ -9420,10 +9420,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -9436,10 +9436,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -10092,7 +10092,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>12.3819</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>13.7217</v>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9">
         <v>14.618799999999998</v>
@@ -10308,7 +10308,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>15.411700000000002</v>
@@ -10380,7 +10380,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>16.654199999999999</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>16.792099999999998</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9">
         <v>17.875299999999999</v>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>18.815099999999997</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9">
         <v>19.217200000000002</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>19.761599999999998</v>
@@ -10812,7 +10812,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9">
         <v>20.358799999999999</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="9">
         <v>20.5168</v>
@@ -11982,7 +11982,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -11995,7 +11995,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -12003,15 +12003,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -12046,7 +12046,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16)</f>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16)</f>
@@ -12131,10 +12131,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12359,7 +12359,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -12372,7 +12372,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -12380,15 +12380,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -12423,7 +12423,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V36)</f>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N36)</f>
@@ -12492,10 +12492,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -12508,10 +12508,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -12586,7 +12586,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9">
         <v>0.4</v>
@@ -12728,7 +12728,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="9">
         <v>1.4</v>
@@ -12870,7 +12870,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="9">
         <v>2.2999999999999998</v>
@@ -13012,7 +13012,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="9">
         <v>5.8</v>
@@ -13154,7 +13154,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9">
         <v>7.1</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>7.11</v>
@@ -13296,7 +13296,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="9">
         <v>9.1999999999999993</v>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>9.2100000000000009</v>
@@ -13438,7 +13438,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="9">
         <v>9.5</v>
@@ -13510,7 +13510,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>9.51</v>
@@ -13580,7 +13580,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="9">
         <v>9.6</v>
@@ -13652,7 +13652,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>9.61</v>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="9">
         <v>10</v>
@@ -13794,7 +13794,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>10.1</v>
@@ -13864,7 +13864,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="9">
         <v>11.2</v>
@@ -13936,7 +13936,7 @@
     </row>
     <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="14">
         <v>11.21</v>
@@ -14151,7 +14151,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -14164,7 +14164,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -14172,15 +14172,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V36)</f>
@@ -14233,7 +14233,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N36)</f>
@@ -14284,10 +14284,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -14300,10 +14300,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -14378,7 +14378,7 @@
     </row>
     <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9">
         <v>0.4</v>
@@ -14520,7 +14520,7 @@
     </row>
     <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="9">
         <v>1.4</v>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="9">
         <v>2.2999999999999998</v>
@@ -14804,7 +14804,7 @@
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="9">
         <v>5.8</v>
@@ -14946,7 +14946,7 @@
     </row>
     <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9">
         <v>7.1</v>
@@ -15018,7 +15018,7 @@
     </row>
     <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>7.11</v>
@@ -15088,7 +15088,7 @@
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="9">
         <v>9.1999999999999993</v>
@@ -15160,7 +15160,7 @@
     </row>
     <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>9.2100000000000009</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="29" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="9">
         <v>9.5</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="30" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>9.51</v>
@@ -15372,7 +15372,7 @@
     </row>
     <row r="31" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="9">
         <v>9.6</v>
@@ -15444,7 +15444,7 @@
     </row>
     <row r="32" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>9.61</v>
@@ -15514,7 +15514,7 @@
     </row>
     <row r="33" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="9">
         <v>10</v>
@@ -15586,7 +15586,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>10.1</v>
@@ -15656,7 +15656,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="9">
         <v>11.2</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="14">
         <v>11.21</v>
@@ -15804,23 +15804,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G20 G22:G36">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I36">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K36">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15943,7 +15943,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -15956,7 +15956,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -15964,15 +15964,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -16007,7 +16007,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V36)</f>
@@ -16025,7 +16025,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N36)</f>
@@ -16076,10 +16076,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -16092,10 +16092,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -16170,7 +16170,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9">
         <v>0.4</v>
@@ -16312,7 +16312,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="9">
         <v>1.4</v>
@@ -16454,7 +16454,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="9">
         <v>2.2999999999999998</v>
@@ -16596,7 +16596,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="9">
         <v>5.8</v>
@@ -16738,7 +16738,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="9">
         <v>7.1</v>
@@ -16810,7 +16810,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>7.11</v>
@@ -16880,7 +16880,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="9">
         <v>9.1999999999999993</v>
@@ -16952,7 +16952,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>9.2100000000000009</v>
@@ -17022,7 +17022,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="9">
         <v>9.5</v>
@@ -17094,7 +17094,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>9.51</v>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="9">
         <v>9.6</v>
@@ -17236,7 +17236,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>9.61</v>
@@ -17306,7 +17306,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="9">
         <v>10</v>
@@ -17378,7 +17378,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>10.1</v>
@@ -17448,7 +17448,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="9">
         <v>11.2</v>
@@ -17520,7 +17520,7 @@
     </row>
     <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="14">
         <v>11.21</v>
@@ -17596,23 +17596,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G36">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I36">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K36">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
